--- a/Casos de Pruebas Gemma/Reportes y SalidasOK.xlsx
+++ b/Casos de Pruebas Gemma/Reportes y SalidasOK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Global-Testing\Casos de Pruebas Gemma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A8FDF56-DAE4-4ACF-9D32-A51205591684}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E14BD11D-3460-4EFA-A849-79BD9AA50B87}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" xr2:uid="{E00E2AE7-34AD-4380-B966-2C87936FE346}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="336">
   <si>
     <t>TC_Gemma_ComisionesPorLiquidar_ExportarExcel</t>
   </si>
@@ -586,6 +586,453 @@
   </si>
   <si>
     <t xml:space="preserve">Mostrar tabla consulta de acuerdo con los datos seleccionados, relacionados a los casos registrados como Fracasos. </t>
+  </si>
+  <si>
+    <t>TC_Gemma_GestionComercial_ExportaDocumento</t>
+  </si>
+  <si>
+    <t>TC_Gemma_GestionComercial_DistribuidorSucursal</t>
+  </si>
+  <si>
+    <t>TC_Gemma_GestionComercial_VendedorCategoria</t>
+  </si>
+  <si>
+    <t>TC_Gemma_GestionComercial_MarcaFechaValida</t>
+  </si>
+  <si>
+    <t>TC_Gemma_GestionComercial_FechaDesde</t>
+  </si>
+  <si>
+    <t>TC_Gemma_GestionComercial_FechaInvalida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar funcionalidad Generar Reporte Gestión Comercial con los valores  Distibuidor Todos Estado Vehículo Todos Tipo Crédito Todos Sucursal Todos Marca Todos Vendedor Todos Categoria Canal     Canal Todos  Exportar EXCEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar funcionalidad Generar Reporte Gestión Comercial con los valores  Distibuidor Global S.A Estado Vehículo Nuevo Tipo Crédito Inteligente Sucursal Nueva Tajamar Marca Todos Vendedor Todos Categoria Canal     Canal Todos Refrescar Búsqueda  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar funcionalidad Generar Reporte Gestión Comercial con los valores  Distibuidor Todos Estado Vehículo Usado Tipo Crédito Convencional Sucursal Todos Marca Nombre Vendedor Nombre Categoria Vendedor     Canal 02 Telefono Refrescar Búsqueda  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar funcionalidad Generar Reporte Gestión Comercial con los valores  Distibuidor Todos Estado Vehículo Todos Tipo Crédito Leasing Sucursal Todos Marca Nombre Vendedor Todos Categoria Distribuidor Desde Seleccionar Fecha Desde Hasta  Seleccionar Fecha Hasta Canal 01 Visita Refrescar Búsqueda  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar funcionalidad Generar Reporte Gestión Comercial con los valores  Distibuidor Todos Estado Vehículo Todos Tipo Crédito Leasing Intelginte  Sucursal Todos Marca Nombre Vendedor Todos Categoria Canal Desde Seleccionar Fecha Desde   Canal Todos Refrescar Búsqueda  </t>
+  </si>
+  <si>
+    <t>Validar funcionalidad Reporte Gestión Comercial  con valores invalidos  en el campo fecha.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceder al sistema Gemma con usuario y perfil activo para la funcionalidad modulo Reportes - Submodulo Gestión Comercial, hacer clic en el botón,    Exportar EXCEL  considerando los datos seleccionados en los filtros      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceder al sistema Gemma con usuario y perfil activo para la funcionalidad modulo Reportes - Submodulo Gestión Comercial, hacer clic en el botón,   Refrescar Búsqueda    considerando los datos seleccionados en los filtros      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceder al sistema Gemma con usuario y perfil activo para la funcionalidad modulo Reportes - Submodulo Gestión Comercial, hacer clic en el botón,   Refrescar Búsqueda    considerando los datos seleccionados en los filtros Desde Seleccionar Fecha Desde Hasta  Seleccionar Fecha Hasta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceder al sistema Gemma con usuario y perfil activo para la funcionalidad modulo Reportes - Submodulo Gestión Comercial, hacer clic en el botón,   Refrescar Búsqueda    considerando los datos seleccionados en los filtros Desde Seleccionar Fecha Desde   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostrar tabla consulta de acuerdo con los datos seleccionados, relacionados a la Gestión Comercial. </t>
+  </si>
+  <si>
+    <t>TC_Gemma_MotivosRechazos_ExportaDocumento</t>
+  </si>
+  <si>
+    <t>TC_Gemma_MotivosRechazos_DistribuidorSucursal</t>
+  </si>
+  <si>
+    <t>TC_Gemma_MotivosRechazos_EjecutivoTipoVehiculo</t>
+  </si>
+  <si>
+    <t>TC_Gemma_MotivosRechazos_VendedorMarca</t>
+  </si>
+  <si>
+    <t>TC_Gemma_MotivosRechazos_TipoCreditoFechaDesde</t>
+  </si>
+  <si>
+    <t>TC_Gemma_MotivosRechazos_SinFechaPeriodo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar funcionalidad Generar Reporte con casos con diferentes Motivos de Rechazos con los valores  Distibuidor Todos Tipo de Vehiculo Todos Tipo Crédito Todos Sucursal Todos Estado Vehiculo Todos Ejecutivo Todos Vendedor Todos Marca Todos Fecha Periodo Desde  Exportar EXCEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar funcionalidad Generar Reporte con casos con diferentes Motivos de Rechazos con los valores  Distibuidor Global S.A Tipo de Vehiculo Automovil Tipo Crédito Inteligente Sucursal Nueva Tajamar Estado Vehiculo Todos Ejecutivo Todos Vendedor Todos Marca Todos Fecha Periodo Desde Refrescar Búsqueda  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar funcionalidad Generar Reporte con casos con diferentes Motivos de Rechazos con los valores  Distibuidor Todos Tipo de Vehiculo Camión Tipo Crédito Convencional Sucursal Todos Estado Vehiculo Nuevo Ejecutivo Nombre Vendedor Todos Marca Nombre Fecha Periodo Desde Refrescar Búsqueda  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar funcionalidad Generar Reporte con casos con diferentes Motivos de Rechazos con los valores  Distibuidor Todos Tipo de Vehiculo Todos Tipo Crédito Leasing Sucursal Todos Estado Vehiculo Usado Ejecutivo Todos Vendedor Nombre Marca Nombre Fecha Periodo Desde Refrescar Búsqueda  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar funcionalidad Generar Reporte con casos con diferentes Motivos de Rechazos con los valores  Distibuidor Todos Tipo de Vehiculo Todos Tipo Crédito Leasing Intelginte  Sucursal Todos Estado Vehiculo Todos Ejecutivo Todos Vendedor Todos Marca Nombre Fecha Periodo Desde Refrescar Búsqueda  </t>
+  </si>
+  <si>
+    <t>Validar funcionalidad Reporte Motivos de Rechazos sin valores en el campor fecha periodo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceder al sistema Gemma con usuario y perfil activo para la funcionalidad modulo Reportes - Submodulo Motivos Rechazos, hacer clic en el botón,    Exportar EXCEL  considerando los datos seleccionados en los filtros Desde Seleccionar Fecha  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceder al sistema Gemma con usuario y perfil activo para la funcionalidad modulo Reportes - Submodulo Motivos Rechazos, hacer clic en el botón,   Refrescar Búsqueda    considerando los datos seleccionados en los filtros Desde Seleccionar Fecha  </t>
+  </si>
+  <si>
+    <t>Acceder al sistema Gemma con usuario y perfil activo para la funcionalidad modulo Reportes - Submodulo Motivos Rechazos, hacer clic en el botón Refrescar Búsqueda con valores de Fecha invalidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostrar tabla consulta de acuerdo con los datos seleccionados, relacionado con los diferentes Motivos de Rechazo de un Crédito Automotriz. </t>
+  </si>
+  <si>
+    <t>Se espera que el sistema emita el mensaje de error Debe ingresar fecha de Período.</t>
+  </si>
+  <si>
+    <t>TC_Gemma_Operaciones_ExportaDocumento</t>
+  </si>
+  <si>
+    <t>TC_Gemma_Operaciones_DistribuidorSucursal</t>
+  </si>
+  <si>
+    <t>TC_Gemma_Operaciones_VendedorFechaValida</t>
+  </si>
+  <si>
+    <t>TC_Gemma_Operaciones_EjecutivoFechaValida</t>
+  </si>
+  <si>
+    <t>TC_Gemma_Operaciones_MarcaCanal</t>
+  </si>
+  <si>
+    <t>TC_Gemma_Operaciones_FechaInvalida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar funcionalidad Generar Reporte Operaciones de ventas con los valores  Distibuidor Todos Tipo de Vehículo Todos Tipo Crédito Todos Sucursal Todos Estado Vehículo Todos  Ejecutivo Todos Vendedor Todos Marca Todos Precursada Categoria Distribuidor      Exportar EXCEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar funcionalidad Generar Reporte Operaciones de ventas con los valores  Distibuidor Global S.A Tipo de Vehículo Automovil Tipo Crédito Inteligente Sucursal Nueva Tajamar Estado Vehículo Nuevo  Ejecutivo Todos Vendedor Todos Marca Todos Cotización Categoria Canal     Refrescar Búsqueda  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar funcionalidad Generar Reporte Operaciones de ventas con los valores  Distibuidor Todos Tipo de Vehículo Camión Tipo Crédito Convencional Sucursal Todos Estado Vehículo Usado  Ejecutivo Todos Vendedor Nombre Marca Nombre Cursada Categoria Vendedor Desde Seleccionar Fecha Desde Hasta  Seleccionar Fecha Hasta Refrescar Búsqueda  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar funcionalidad Generar Reporte Operaciones de ventas con los valores  Distibuidor Todos Tipo de Vehículo Todos Tipo Crédito Leasing Sucursal Todos Estado Vehículo Todos  Ejecutivo Nombre Vendedor Todos Marca Nombre Todos Categoria Ejecutivo Desde Seleccionar Fecha Desde   Refrescar Búsqueda  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar funcionalidad Generar Reporte Operaciones de ventas con los valores  Distibuidor Todos Tipo de Vehículo Todos Tipo Crédito Leasing Intelginte  Sucursal Todos Estado Vehículo Todos  Ejecutivo Todos Vendedor Todos Marca Nombre Cotización Categoria Canal     Refrescar Búsqueda  </t>
+  </si>
+  <si>
+    <t>Acceder al sistema Gemma con usuario y perfil activo para la funcionalidad modulo Reportes - Submodulo Operaciones, hacer clic en el botón Refrescar Búsqueda con valores de Fecha invalidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostrar tabla consulta de acuerdo con los datos seleccionados, relacionados a los casos registrados como Operaciones. </t>
+  </si>
+  <si>
+    <t>TC_Gemma_OperacionesDetallado_ExportarExcel</t>
+  </si>
+  <si>
+    <t>TC_Gemma_OperacionesDetallado_DistribuidorSucursal</t>
+  </si>
+  <si>
+    <t>TC_Gemma_OperacionesDetallado_VendedorFechaValida</t>
+  </si>
+  <si>
+    <t>TC_Gemma_OperacionesDetallado_EjecutivoFechaValida</t>
+  </si>
+  <si>
+    <t>TC_Gemma_OperacionesDetallado_MarcaCanal</t>
+  </si>
+  <si>
+    <t>TC_Gemma_OperacionesDetallado_FechaInvalida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar funcionalidad Generar Reporte Operaciones Detallado de ventas con los valores Distibuidor Todos Tipo de Vehículo Todos Tipo Crédito Todos Sucursal Todos Estado Vehículo Todos  Ejecutivo Todos Vendedor Todos Marca Todos Todos  Opción Categoria Canal      Exportar EXCEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar funcionalidad Generar Reporte Operaciones Detallado de ventas con los valores Distibuidor Global S.A Tipo de Vehículo Automovil Tipo Crédito Inteligente Sucursal Nueva Tajamar Estado Vehículo Nuevo  Ejecutivo Todos Vendedor Todos Marca Todos Todos  Opción Categoria Canal     Refrescar Búsqueda  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar funcionalidad Generar Reporte Operaciones Detallado de ventas con los valores Distibuidor Todos Tipo de Vehículo Camión Tipo Crédito Convencional Sucursal Todos Estado Vehículo Usado  Ejecutivo Todos Vendedor Nombre Marca Nombre PRIMERA Opción Categoria Vendedor Desde Seleccionar Fecha Desde Hasta  Seleccionar Fecha Hasta Refrescar Búsqueda  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar funcionalidad Generar Reporte Operaciones Detallado de ventas con los valores Distibuidor Todos Tipo de Vehículo Todos Tipo Crédito Leasing Sucursal Todos Estado Vehículo Todos  Ejecutivo Nombre Vendedor Todos Marca Nombre SEGUNDA Opción Categoria Ejecutivo Desde Seleccionar Fecha Desde   Refrescar Búsqueda  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar funcionalidad Generar Reporte Operaciones Detallado de ventas con los valores Distibuidor Todos Tipo de Vehículo Todos Tipo Crédito Leasing Intelginte  Sucursal Todos Estado Vehículo Todos  Ejecutivo Todos Vendedor Todos Marca Nombre TERCERA Opción Categoria Canal     Refrescar Búsqueda  </t>
+  </si>
+  <si>
+    <t>Validar funcionalidad Reporte Operaciones Detallado con valores errados en el campo fecha cotización.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceder al sistema Gemma con usuario y perfil activo para la funcionalidad modulo Reportes - Submodulo Operaciones Detallado, hacer clic en el botón,    Exportar EXCEL  considerando los datos seleccionados en los filtros     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceder al sistema Gemma con usuario y perfil activo para la funcionalidad modulo Reportes - Submodulo Operaciones Detallado, hacer clic en el botón,   Refrescar Búsqueda    considerando los datos seleccionados en los filtros     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceder al sistema Gemma con usuario y perfil activo para la funcionalidad modulo Reportes - Submodulo Operaciones Detallado, hacer clic en el botón,   Refrescar Búsqueda    considerando los datos seleccionados en los filtros Desde Seleccionar Fecha Desde Hasta  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceder al sistema Gemma con usuario y perfil activo para la funcionalidad modulo Reportes - Submodulo Operaciones Detallado, hacer clic en el botón,   Refrescar Búsqueda    considerando los datos seleccionados en los filtros Desde Seleccionar Fecha Desde  </t>
+  </si>
+  <si>
+    <t>Acceder al sistema Gemma con usuario y perfil activo para la funcionalidad modulo Reportes - Submodulo Operaciones Detallado, hacer clic en el botón Refrescar Búsqueda con valores de Fecha invalida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostrar tabla consulta de acuerdo con los datos seleccionados, relacionados a los casos registrados como OperacionesDetallado. </t>
+  </si>
+  <si>
+    <t>TC_Gemma_Ingresados_ExportaDocumento</t>
+  </si>
+  <si>
+    <t>TC_Gemma_Ingresados_DistribuidorSucursal</t>
+  </si>
+  <si>
+    <t>TC_Gemma_Ingresados_EjecutivoVendedor</t>
+  </si>
+  <si>
+    <t>TC_Gemma_Ingresados_ClienteValido</t>
+  </si>
+  <si>
+    <t>TC_Gemma_Ingresados_TrabajarConCasos</t>
+  </si>
+  <si>
+    <t>TC_Gemma_Ingresados_ClienteInvalido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar funcionalidad Generar Reporte de Documentación Pendiente con los valores  Distribuidor Todos Sucursal Todos Vendedor Todos Estado Op. Todos   Ejecutivo Todos   Exportar Documento .aspx  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar funcionalidad Generar Reporte de Documentación Pendiente con los valores  Distribuidor Global S.A Sucursal Nueva Tajamar Vendedor Todos Estado Op. Todos   Ejecutivo Todos  Refrescar Búsqueda   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar funcionalidad Generar Reporte de Documentación Pendiente con los valores  Distribuidor Todos Sucursal Todos Vendedor Nombre Estado Op. Ingresado   Ejecutivo Nombre  Refrescar Búsqueda   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar funcionalidad Generar Reporte de Documentación Pendiente con los valores  Distribuidor Todos Sucursal Todos Vendedor Todos Estado Op. En Prenda Cliente  Ejecutivo Todos  Refrescar Búsqueda   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar funcionalidad Generar Reporte de Documentación Pendiente con los valores  Distribuidor Todos Sucursal Todos Vendedor Todos Estado Op. Todos   Ejecutivo Todos N° de Operación   Trabajar con CASOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceder al sistema Gemma con usuario y perfil activo para la funcionalidad modulo Reportes - Submodulo Ingresados, hacer clic en el botón,      Exportar Documento .aspx   considerando los datos seleccionados en los filtros  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceder al sistema Gemma con usuario y perfil activo para la funcionalidad modulo Reportes - Submodulo Ingresados, hacer clic en el botón,    Refrescar Búsqueda     considerando los datos de distrubuidor y sucursal seleccionados en los filtros  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceder al sistema Gemma con usuario y perfil activo para la funcionalidad modulo Reportes - Submodulo Ingresados, hacer clic en el botón,    Refrescar Búsqueda     considerando los datos de vendedor y estado OP. seleccionados en los filtros  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceder al sistema Gemma con usuario y perfil activo para la funcionalidad modulo Reportes - Submodulo Ingresados, hacer clic en el botón,    Refrescar Búsqueda     considerando los datos de un cliente valido. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceder al sistema Gemma con usuario y perfil activo para la funcionalidad modulo Reportes - Submodulo Ingresados, hacer clic en el botón,   N° de Operación     Trabajar con CASOS consultado estado y datos de la operación </t>
+  </si>
+  <si>
+    <t>Acceder al sistema Gemma con usuario y perfil activo para la funcionalidad modulo Reportes - Submodulo Ingresados  considerando colocar valores de cliente invalido</t>
+  </si>
+  <si>
+    <t>Mostrar tabla consulta de acuerdo con los datos seleccionados, relacionados los casos Ingresados.</t>
+  </si>
+  <si>
+    <t>Mostrar tabla consulta de acuerdo con los datos seleccionados, relacionados los casos Ingresados. Llamar al modulo Trabajar Casos desde el numero de OP.</t>
+  </si>
+  <si>
+    <t>TC_Gemma_Ventas_ExportaDocumento</t>
+  </si>
+  <si>
+    <t>TC_Gemma_Ventas_DistribuidorSucursal</t>
+  </si>
+  <si>
+    <t>TC_Gemma_Ventas_VendedorFechaValida</t>
+  </si>
+  <si>
+    <t>TC_Gemma_Ventas_EjecutivoFechaValida</t>
+  </si>
+  <si>
+    <t>TC_Gemma_Ventas_MarcaCanal</t>
+  </si>
+  <si>
+    <t>TC_Gemma_Ventas_FechaInvalida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar funcionalidad Generar Reporte Ventas de ventas con los valores  Distibuidor Todos Tipo de Vehículo Todos Tipo Crédito Todos Sucursal Todos Estado Vehículo Todos  Ejecutivo Todos Vendedor Todos Marca Todos Canal Todos Categoria Distribuidor      Exportar EXCEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar funcionalidad Generar Reporte Ventas de ventas con los valores  Distibuidor Global S.A Tipo de Vehículo Automovil Tipo Crédito Inteligente Sucursal Nueva Tajamar Estado Vehículo Nuevo  Ejecutivo Todos Vendedor Todos Marca Todos Canal 01 Visita Categoria Canal     Refrescar Búsqueda  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar funcionalidad Generar Reporte Ventas de ventas con los valores  Distibuidor Todos Tipo de Vehículo Camión Tipo Crédito Convencional Sucursal Todos Estado Vehículo Usado  Ejecutivo Todos Vendedor Nombre Marca Nombre Canal 02 Telefono Categoria Vendedor Desde Seleccionar Fecha Desde Hasta  Seleccionar Fecha Hasta Refrescar Búsqueda  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar funcionalidad Generar Reporte Ventas de ventas con los valores  Distibuidor Todos Tipo de Vehículo Todos Tipo Crédito Leasing Sucursal Todos Estado Vehículo Todos  Ejecutivo Nombre Vendedor Todos Marca Nombre Canal 03  Referido Categoria Ejecutivo Desde Seleccionar Fecha Desde   Refrescar Búsqueda  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar funcionalidad Generar Reporte Ventas de ventas con los valores  Distibuidor Todos Tipo de Vehículo Todos Tipo Crédito Leasing Intelginte  Sucursal Todos Estado Vehículo Todos  Ejecutivo Todos Vendedor Todos Marca Nombre Canal 01 Visita Categoria Canal     Refrescar Búsqueda  </t>
+  </si>
+  <si>
+    <t>Validar funcionalidad Reporte Ventas con valores errados en el campo fecha.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceder al sistema Gemma con usuario y perfil activo para la funcionalidad modulo Reportes - Submodulo Ventas, hacer clic en el botón,    Exportar EXCEL  considerando los datos seleccionados en los filtros     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceder al sistema Gemma con usuario y perfil activo para la funcionalidad modulo Reportes - Submodulo Ventas, hacer clic en el botón,   Refrescar Búsqueda    considerando los datos seleccionados en los filtros     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceder al sistema Gemma con usuario y perfil activo para la funcionalidad modulo Reportes - Submodulo Ventas, hacer clic en el botón,   Refrescar Búsqueda    considerando los datos seleccionados en los filtros Desde Seleccionar Fecha Desde Hasta  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceder al sistema Gemma con usuario y perfil activo para la funcionalidad modulo Reportes - Submodulo Ventas, hacer clic en el botón,   Refrescar Búsqueda    considerando los datos seleccionados en los filtros Desde Seleccionar Fecha Desde  </t>
+  </si>
+  <si>
+    <t>Acceder al sistema Gemma con usuario y perfil activo para la funcionalidad modulo Reportes - Submodulo Ventas, hacer clic en el botón Refrescar Búsqueda con valores de Fecha invalidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostrar tabla consulta de acuerdo con los datos seleccionados, relacionados a los casos registrados como Ventas. </t>
+  </si>
+  <si>
+    <t>TC_Gemma_VentasVSProyeccion_ExportarDocumento</t>
+  </si>
+  <si>
+    <t>TC_Gemma_VentasVSProyeccion_DistribuidorSucursal</t>
+  </si>
+  <si>
+    <t>TC_Gemma_VentasVSProyeccion_VendedorFechaValida</t>
+  </si>
+  <si>
+    <t>TC_Gemma_VentasVSProyeccion_EjecutivoFechaValida</t>
+  </si>
+  <si>
+    <t>TC_Gemma_VentasVSProyeccion_MarcaCanal</t>
+  </si>
+  <si>
+    <t>TC_Gemma_VentasVSProyeccion_FechaInvalida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar funcionalidad Generar Reporte VentasVSProyeccion de VentasVSProyeccion con los valores  Distibuidor Todos Tipo de Vehículo Todos Tipo Crédito Todos Sucursal Todos Estado Vehículo Todos  Ejecutivo Todos Vendedor Todos Marca Todos Canal Todos Categoria Distribuidor      Exportar EXCEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar funcionalidad Generar Reporte VentasVSProyeccion de VentasVSProyeccion con los valores  Distibuidor Global S.A Tipo de Vehículo Automovil Tipo Crédito Inteligente Sucursal Nueva Tajamar Estado Vehículo Nuevo  Ejecutivo Todos Vendedor Todos Marca Todos Canal 01 Visita Categoria Canal     Refrescar Búsqueda  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar funcionalidad Generar Reporte VentasVSProyeccion de VentasVSProyeccion con los valores  Distibuidor Todos Tipo de Vehículo Camión Tipo Crédito Convencional Sucursal Todos Estado Vehículo Usado  Ejecutivo Todos Vendedor Nombre Marca Nombre Canal 02 Telefono Categoria Vendedor Desde Seleccionar Fecha Desde Hasta  Seleccionar Fecha Hasta Refrescar Búsqueda  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar funcionalidad Generar Reporte VentasVSProyeccion de VentasVSProyeccion con los valores  Distibuidor Todos Tipo de Vehículo Todos Tipo Crédito Leasing Sucursal Todos Estado Vehículo Todos  Ejecutivo Nombre Vendedor Todos Marca Nombre Canal 03  Referido Categoria Ejecutivo Desde Seleccionar Fecha Desde   Refrescar Búsqueda  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar funcionalidad Generar Reporte VentasVSProyeccion de VentasVSProyeccion con los valores  Distibuidor Todos Tipo de Vehículo Todos Tipo Crédito Leasing Intelginte  Sucursal Todos Estado Vehículo Todos  Ejecutivo Todos Vendedor Todos Marca Nombre Canal 01 Visita Categoria Canal     Refrescar Búsqueda  </t>
+  </si>
+  <si>
+    <t>Validar funcionalidad Reporte VentasVSProyeccion con valores errados en el campo fecha.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceder al sistema Gemma con usuario y perfil activo para la funcionalidad modulo Reportes - Submodulo VentasVSProyeccion, hacer clic en el botón,    Exportar EXCEL  considerando los datos seleccionados en los filtros     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceder al sistema Gemma con usuario y perfil activo para la funcionalidad modulo Reportes - Submodulo VentasVSProyeccion, hacer clic en el botón,   Refrescar Búsqueda    considerando los datos seleccionados en los filtros     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceder al sistema Gemma con usuario y perfil activo para la funcionalidad modulo Reportes - Submodulo VentasVSProyeccion, hacer clic en el botón,   Refrescar Búsqueda    considerando los datos seleccionados en los filtros Desde Seleccionar Fecha Desde Hasta  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceder al sistema Gemma con usuario y perfil activo para la funcionalidad modulo Reportes - Submodulo VentasVSProyeccion, hacer clic en el botón,   Refrescar Búsqueda    considerando los datos seleccionados en los filtros Desde Seleccionar Fecha Desde  </t>
+  </si>
+  <si>
+    <t>Acceder al sistema Gemma con usuario y perfil activo para la funcionalidad modulo Reportes - Submodulo VentasVSProyeccion, hacer clic en el botón Refrescar Búsqueda con valores de Fecha invalidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostrar tabla consulta de acuerdo con los datos seleccionados, relacionados a los casos registrados como Ventas y la Proyeccion de ventas. </t>
+  </si>
+  <si>
+    <t>TC_Gemma_Peajes_ExportarDocumento</t>
+  </si>
+  <si>
+    <t>TC_Gemma_Peajes_DistribuidorSucursal</t>
+  </si>
+  <si>
+    <t>TC_Gemma_Peajes_VendedorFechaValida</t>
+  </si>
+  <si>
+    <t>TC_Gemma_Peajes_EjecutivoFechaValida</t>
+  </si>
+  <si>
+    <t>TC_Gemma_Peajes_FechaInvalida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar funcionalidad Generar Reporte Peajes con los valores  Distibuidor Todos Sucursal Todos Ejecutivo Todos Vendedor Todos Marca Todos Categoria Canal      Exportar EXCEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar funcionalidad Generar Reporte Peajes con los valores  Distibuidor Global S.A Sucursal Nueva Tajamar Ejecutivo Todos Vendedor Todos Marca Nombre Categoria Distribuidor     Refrescar Búsqueda  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar funcionalidad Generar Reporte Peajes con los valores  Distibuidor Todos Sucursal Todos Ejecutivo Todos Vendedor Nombre Marca Nombre Categoria Vendedor Desde Seleccionar Fecha Desde Hasta  Seleccionar Fecha Hasta Refrescar Búsqueda  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar funcionalidad Generar Reporte Peajes con los valores  Distibuidor Todos Sucursal Todos Ejecutivo Nombre Vendedor Todos Marca Nombre Categoria Ejecutivo Desde Seleccionar Fecha Desde   Refrescar Búsqueda  </t>
+  </si>
+  <si>
+    <t>Validar funcionalidad Reporte Peajes con valores errados en el campo fecha.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceder al sistema Gemma con usuario y perfil activo para la funcionalidad modulo Reportes - Submodulo Peajes, hacer clic en el botón,    Exportar EXCEL  considerando los datos seleccionados en los filtros     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceder al sistema Gemma con usuario y perfil activo para la funcionalidad modulo Reportes - Submodulo Peajes, hacer clic en el botón,   Refrescar Búsqueda    considerando los datos de distribuidor y sucursal seleccionados en los filtros     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceder al sistema Gemma con usuario y perfil activo para la funcionalidad modulo Reportes - Submodulo Peajes, hacer clic en el botón,   Refrescar Búsqueda    considerando los datos de vendedor y seleccionados en los filtros Desde Seleccionar Fecha Desde Hasta  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceder al sistema Gemma con usuario y perfil activo para la funcionalidad modulo Reportes - Submodulo Peajes, hacer clic en el botón,   Refrescar Búsqueda    considerando los datos de Ejecutivo y seleccionados en los filtros Desde Seleccionar Fecha Desde  </t>
+  </si>
+  <si>
+    <t>Acceder al sistema Gemma con usuario y perfil activo para la funcionalidad modulo Reportes - Submodulo Peajes, hacer clic en el botón Refrescar Búsqueda con valores de Fecha invalidos</t>
+  </si>
+  <si>
+    <t>Mostrar tabla consulta de acuerdo con los datos seleccionados.</t>
+  </si>
+  <si>
+    <t>TC_Gemma_Puntaje_ExportarExcel</t>
+  </si>
+  <si>
+    <t>TC_Gemma_Puntaje_AñoMes</t>
+  </si>
+  <si>
+    <t>TC_Gemma_Puntaje_Exportacion</t>
+  </si>
+  <si>
+    <t>TC_Gemma_Puntaje_AñoInvalido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar funcionalidad Generar Reporte Peajes con los valores  Año Todos los meses            Exportar Excel   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar funcionalidad Generar Reporte Peajes con los valores  Año       Junio  Agosto   Refrescar Busqueda    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar funcionalidad Generar Reporte Peajes con los valores  Año     Marzo         Exportación Detallada  </t>
+  </si>
+  <si>
+    <t>Validar funcionalidad Reporte Puntaje con el valor de Año inválido.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceder al sistema Gemma con usuario y perfil activo para la funcionalidad modulo Reportes - Submodulo Puntajes, hacer clic en el botón,     Exportar Excel   considerando el número de operación y fecha de pago.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceder al sistema Gemma con usuario y perfil activo para la funcionalidad modulo Reportes - Submodulo Puntajes, hacer clic en el botón,   Refrescar Busqueda     considerando el número de operación y fecha de pago.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceder al sistema Gemma con usuario y perfil activo para la funcionalidad modulo Reportes - Submodulo Puntajes, hacer clic en el botón,       Exportación Detallada considerando el número de operación y fecha de pago.  </t>
+  </si>
+  <si>
+    <t>Acceder al sistema Gemma con usuario y perfil activo para la funcionalidad modulo Reportes - Submodulo Puntajes, agregando un valor de Año Inválido.</t>
+  </si>
+  <si>
+    <t>Se espera que el sistema emita el mensaje de error El valor no representa un numero valido</t>
   </si>
 </sst>
 </file>
@@ -937,10 +1384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8982498A-DEF4-44C8-A265-CACBD356C3E1}">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="H111" sqref="H111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1757,6 +2204,720 @@
         <v>14</v>
       </c>
     </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>187</v>
+      </c>
+      <c r="B59" t="s">
+        <v>193</v>
+      </c>
+      <c r="C59" t="s">
+        <v>199</v>
+      </c>
+      <c r="D59" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>188</v>
+      </c>
+      <c r="B60" t="s">
+        <v>194</v>
+      </c>
+      <c r="C60" t="s">
+        <v>200</v>
+      </c>
+      <c r="D60" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>189</v>
+      </c>
+      <c r="B61" t="s">
+        <v>195</v>
+      </c>
+      <c r="C61" t="s">
+        <v>200</v>
+      </c>
+      <c r="D61" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>190</v>
+      </c>
+      <c r="B62" t="s">
+        <v>196</v>
+      </c>
+      <c r="C62" t="s">
+        <v>201</v>
+      </c>
+      <c r="D62" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>191</v>
+      </c>
+      <c r="B63" t="s">
+        <v>197</v>
+      </c>
+      <c r="C63" t="s">
+        <v>202</v>
+      </c>
+      <c r="D63" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>192</v>
+      </c>
+      <c r="B64" t="s">
+        <v>198</v>
+      </c>
+      <c r="C64" t="s">
+        <v>185</v>
+      </c>
+      <c r="D64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>204</v>
+      </c>
+      <c r="B65" t="s">
+        <v>210</v>
+      </c>
+      <c r="C65" t="s">
+        <v>216</v>
+      </c>
+      <c r="D65" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>205</v>
+      </c>
+      <c r="B66" t="s">
+        <v>211</v>
+      </c>
+      <c r="C66" t="s">
+        <v>217</v>
+      </c>
+      <c r="D66" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>206</v>
+      </c>
+      <c r="B67" t="s">
+        <v>212</v>
+      </c>
+      <c r="C67" t="s">
+        <v>217</v>
+      </c>
+      <c r="D67" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>207</v>
+      </c>
+      <c r="B68" t="s">
+        <v>213</v>
+      </c>
+      <c r="C68" t="s">
+        <v>217</v>
+      </c>
+      <c r="D68" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>208</v>
+      </c>
+      <c r="B69" t="s">
+        <v>214</v>
+      </c>
+      <c r="C69" t="s">
+        <v>217</v>
+      </c>
+      <c r="D69" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>209</v>
+      </c>
+      <c r="B70" t="s">
+        <v>215</v>
+      </c>
+      <c r="C70" t="s">
+        <v>218</v>
+      </c>
+      <c r="D70" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>221</v>
+      </c>
+      <c r="B71" t="s">
+        <v>227</v>
+      </c>
+      <c r="C71" t="s">
+        <v>181</v>
+      </c>
+      <c r="D71" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>222</v>
+      </c>
+      <c r="B72" t="s">
+        <v>228</v>
+      </c>
+      <c r="C72" t="s">
+        <v>182</v>
+      </c>
+      <c r="D72" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>223</v>
+      </c>
+      <c r="B73" t="s">
+        <v>229</v>
+      </c>
+      <c r="C73" t="s">
+        <v>183</v>
+      </c>
+      <c r="D73" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>224</v>
+      </c>
+      <c r="B74" t="s">
+        <v>230</v>
+      </c>
+      <c r="C74" t="s">
+        <v>184</v>
+      </c>
+      <c r="D74" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>225</v>
+      </c>
+      <c r="B75" t="s">
+        <v>231</v>
+      </c>
+      <c r="C75" t="s">
+        <v>182</v>
+      </c>
+      <c r="D75" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>226</v>
+      </c>
+      <c r="B76" t="s">
+        <v>180</v>
+      </c>
+      <c r="C76" t="s">
+        <v>232</v>
+      </c>
+      <c r="D76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>234</v>
+      </c>
+      <c r="B77" t="s">
+        <v>240</v>
+      </c>
+      <c r="C77" t="s">
+        <v>246</v>
+      </c>
+      <c r="D77" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>235</v>
+      </c>
+      <c r="B78" t="s">
+        <v>241</v>
+      </c>
+      <c r="C78" t="s">
+        <v>247</v>
+      </c>
+      <c r="D78" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>236</v>
+      </c>
+      <c r="B79" t="s">
+        <v>242</v>
+      </c>
+      <c r="C79" t="s">
+        <v>248</v>
+      </c>
+      <c r="D79" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>237</v>
+      </c>
+      <c r="B80" t="s">
+        <v>243</v>
+      </c>
+      <c r="C80" t="s">
+        <v>249</v>
+      </c>
+      <c r="D80" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>238</v>
+      </c>
+      <c r="B81" t="s">
+        <v>244</v>
+      </c>
+      <c r="C81" t="s">
+        <v>247</v>
+      </c>
+      <c r="D81" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>239</v>
+      </c>
+      <c r="B82" t="s">
+        <v>245</v>
+      </c>
+      <c r="C82" t="s">
+        <v>250</v>
+      </c>
+      <c r="D82" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>252</v>
+      </c>
+      <c r="B83" t="s">
+        <v>258</v>
+      </c>
+      <c r="C83" t="s">
+        <v>263</v>
+      </c>
+      <c r="D83" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>253</v>
+      </c>
+      <c r="B84" t="s">
+        <v>259</v>
+      </c>
+      <c r="C84" t="s">
+        <v>264</v>
+      </c>
+      <c r="D84" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>254</v>
+      </c>
+      <c r="B85" t="s">
+        <v>260</v>
+      </c>
+      <c r="C85" t="s">
+        <v>265</v>
+      </c>
+      <c r="D85" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>255</v>
+      </c>
+      <c r="B86" t="s">
+        <v>261</v>
+      </c>
+      <c r="C86" t="s">
+        <v>266</v>
+      </c>
+      <c r="D86" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>256</v>
+      </c>
+      <c r="B87" t="s">
+        <v>262</v>
+      </c>
+      <c r="C87" t="s">
+        <v>267</v>
+      </c>
+      <c r="D87" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>257</v>
+      </c>
+      <c r="B88" t="s">
+        <v>137</v>
+      </c>
+      <c r="C88" t="s">
+        <v>268</v>
+      </c>
+      <c r="D88" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>271</v>
+      </c>
+      <c r="B89" t="s">
+        <v>277</v>
+      </c>
+      <c r="C89" t="s">
+        <v>283</v>
+      </c>
+      <c r="D89" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>272</v>
+      </c>
+      <c r="B90" t="s">
+        <v>278</v>
+      </c>
+      <c r="C90" t="s">
+        <v>284</v>
+      </c>
+      <c r="D90" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>273</v>
+      </c>
+      <c r="B91" t="s">
+        <v>279</v>
+      </c>
+      <c r="C91" t="s">
+        <v>285</v>
+      </c>
+      <c r="D91" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>274</v>
+      </c>
+      <c r="B92" t="s">
+        <v>280</v>
+      </c>
+      <c r="C92" t="s">
+        <v>286</v>
+      </c>
+      <c r="D92" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>275</v>
+      </c>
+      <c r="B93" t="s">
+        <v>281</v>
+      </c>
+      <c r="C93" t="s">
+        <v>284</v>
+      </c>
+      <c r="D93" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>276</v>
+      </c>
+      <c r="B94" t="s">
+        <v>282</v>
+      </c>
+      <c r="C94" t="s">
+        <v>287</v>
+      </c>
+      <c r="D94" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>289</v>
+      </c>
+      <c r="B95" t="s">
+        <v>295</v>
+      </c>
+      <c r="C95" t="s">
+        <v>301</v>
+      </c>
+      <c r="D95" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>290</v>
+      </c>
+      <c r="B96" t="s">
+        <v>296</v>
+      </c>
+      <c r="C96" t="s">
+        <v>302</v>
+      </c>
+      <c r="D96" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>291</v>
+      </c>
+      <c r="B97" t="s">
+        <v>297</v>
+      </c>
+      <c r="C97" t="s">
+        <v>303</v>
+      </c>
+      <c r="D97" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>292</v>
+      </c>
+      <c r="B98" t="s">
+        <v>298</v>
+      </c>
+      <c r="C98" t="s">
+        <v>304</v>
+      </c>
+      <c r="D98" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>293</v>
+      </c>
+      <c r="B99" t="s">
+        <v>299</v>
+      </c>
+      <c r="C99" t="s">
+        <v>302</v>
+      </c>
+      <c r="D99" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>294</v>
+      </c>
+      <c r="B100" t="s">
+        <v>300</v>
+      </c>
+      <c r="C100" t="s">
+        <v>305</v>
+      </c>
+      <c r="D100" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>307</v>
+      </c>
+      <c r="B101" t="s">
+        <v>312</v>
+      </c>
+      <c r="C101" t="s">
+        <v>317</v>
+      </c>
+      <c r="D101" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>308</v>
+      </c>
+      <c r="B102" t="s">
+        <v>313</v>
+      </c>
+      <c r="C102" t="s">
+        <v>318</v>
+      </c>
+      <c r="D102" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>309</v>
+      </c>
+      <c r="B103" t="s">
+        <v>314</v>
+      </c>
+      <c r="C103" t="s">
+        <v>319</v>
+      </c>
+      <c r="D103" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>310</v>
+      </c>
+      <c r="B104" t="s">
+        <v>315</v>
+      </c>
+      <c r="C104" t="s">
+        <v>320</v>
+      </c>
+      <c r="D104" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>311</v>
+      </c>
+      <c r="B105" t="s">
+        <v>316</v>
+      </c>
+      <c r="C105" t="s">
+        <v>321</v>
+      </c>
+      <c r="D105" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>323</v>
+      </c>
+      <c r="B106" t="s">
+        <v>327</v>
+      </c>
+      <c r="C106" t="s">
+        <v>331</v>
+      </c>
+      <c r="D106" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>324</v>
+      </c>
+      <c r="B107" t="s">
+        <v>328</v>
+      </c>
+      <c r="C107" t="s">
+        <v>332</v>
+      </c>
+      <c r="D107" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>325</v>
+      </c>
+      <c r="B108" t="s">
+        <v>329</v>
+      </c>
+      <c r="C108" t="s">
+        <v>333</v>
+      </c>
+      <c r="D108" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>326</v>
+      </c>
+      <c r="B109" t="s">
+        <v>330</v>
+      </c>
+      <c r="C109" t="s">
+        <v>334</v>
+      </c>
+      <c r="D109" t="s">
+        <v>335</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
